--- a/UBB FMI 2021-2022 (1st Year)/Computational Logic/Homework - teams/gr914-teams.xlsx
+++ b/UBB FMI 2021-2022 (1st Year)/Computational Logic/Homework - teams/gr914-teams.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -994,12 +994,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,13 +1132,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C80C10FE-4DED-4D0D-A9A0-5D7AF36DCD21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16B90C8-7CF1-4963-B208-9420FA24642E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1149,5 +1149,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16B90C8-7CF1-4963-B208-9420FA24642E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C80C10FE-4DED-4D0D-A9A0-5D7AF36DCD21}"/>
 </file>